--- a/work_with_tables/parkland_export.xlsx
+++ b/work_with_tables/parkland_export.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelparker/Dropbox (Personal)/MP_Python/work_with_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE78B632-EF38-9F46-9AC6-B4C9B7430DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1987DD9-3EDC-F84E-A147-491786EC95E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="4260" windowWidth="28040" windowHeight="17440" xr2:uid="{05A9EC93-87C0-7D47-9375-21C03C989B28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export" sheetId="2" r:id="rId1"/>
+    <sheet name="Export" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1149,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969CD69E-ABC5-B842-AC7C-CDC4153D7304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA32749-89BC-A842-9790-1E0A036A0A90}">
   <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3669,7 +3669,7 @@
         <v>133</v>
       </c>
       <c r="B108">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C108" s="1">
         <v>32677</v>
@@ -3932,7 +3932,7 @@
         <v>147</v>
       </c>
       <c r="B121">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C121" s="1">
         <v>21352</v>
@@ -3955,7 +3955,7 @@
         <v>148</v>
       </c>
       <c r="B122">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C122" s="1">
         <v>17336</v>
